--- a/ProjetoDEA-main/modelo.xlsx
+++ b/ProjetoDEA-main/modelo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411AE89E-40B9-451F-800C-023BC54F7576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C65A330-1138-4C4B-9413-AA41F3FCEFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2475" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -1431,7 +1431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1551,12 +1551,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,370 +1584,154 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="1" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1970,13 +1748,277 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1985,95 +2027,50 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2453,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE41" sqref="AE41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11:Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,42 +2477,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="111"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="127" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="128"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="184"/>
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="114"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="116"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="175"/>
       <c r="H2" s="4" t="s">
         <v>49</v>
       </c>
@@ -2540,966 +2537,966 @@
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="137"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="189"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="189"/>
+      <c r="T3" s="189"/>
+      <c r="U3" s="189"/>
+      <c r="V3" s="189"/>
+      <c r="W3" s="189"/>
+      <c r="X3" s="189"/>
+      <c r="Y3" s="189"/>
+      <c r="Z3" s="190"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="137"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
+      <c r="N4" s="189"/>
+      <c r="O4" s="189"/>
+      <c r="P4" s="189"/>
+      <c r="Q4" s="189"/>
+      <c r="R4" s="189"/>
+      <c r="S4" s="189"/>
+      <c r="T4" s="189"/>
+      <c r="U4" s="189"/>
+      <c r="V4" s="189"/>
+      <c r="W4" s="189"/>
+      <c r="X4" s="189"/>
+      <c r="Y4" s="189"/>
+      <c r="Z4" s="190"/>
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="136"/>
-      <c r="W5" s="136"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="137"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="189"/>
+      <c r="M5" s="189"/>
+      <c r="N5" s="189"/>
+      <c r="O5" s="189"/>
+      <c r="P5" s="189"/>
+      <c r="Q5" s="189"/>
+      <c r="R5" s="189"/>
+      <c r="S5" s="189"/>
+      <c r="T5" s="189"/>
+      <c r="U5" s="189"/>
+      <c r="V5" s="189"/>
+      <c r="W5" s="189"/>
+      <c r="X5" s="189"/>
+      <c r="Y5" s="189"/>
+      <c r="Z5" s="190"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="136"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="136"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="136"/>
-      <c r="W6" s="136"/>
-      <c r="X6" s="136"/>
-      <c r="Y6" s="136"/>
-      <c r="Z6" s="137"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="189"/>
+      <c r="Q6" s="189"/>
+      <c r="R6" s="189"/>
+      <c r="S6" s="189"/>
+      <c r="T6" s="189"/>
+      <c r="U6" s="189"/>
+      <c r="V6" s="189"/>
+      <c r="W6" s="189"/>
+      <c r="X6" s="189"/>
+      <c r="Y6" s="189"/>
+      <c r="Z6" s="190"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="2:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="114"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="136"/>
-      <c r="S7" s="136"/>
-      <c r="T7" s="136"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="136"/>
-      <c r="Y7" s="136"/>
-      <c r="Z7" s="137"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="189"/>
+      <c r="R7" s="189"/>
+      <c r="S7" s="189"/>
+      <c r="T7" s="189"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="189"/>
+      <c r="W7" s="189"/>
+      <c r="X7" s="189"/>
+      <c r="Y7" s="189"/>
+      <c r="Z7" s="190"/>
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="2:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="68" t="s">
+      <c r="B8" s="176"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="72"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="220"/>
+      <c r="K8" s="220"/>
+      <c r="L8" s="220"/>
+      <c r="M8" s="220"/>
+      <c r="N8" s="220"/>
+      <c r="O8" s="220"/>
+      <c r="P8" s="221"/>
+      <c r="Q8" s="222"/>
+      <c r="R8" s="222"/>
+      <c r="S8" s="222"/>
+      <c r="T8" s="222"/>
+      <c r="U8" s="222"/>
+      <c r="V8" s="222"/>
+      <c r="W8" s="222"/>
+      <c r="X8" s="222"/>
+      <c r="Y8" s="222"/>
+      <c r="Z8" s="223"/>
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="2:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="143"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="143"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="143"/>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="144"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="198"/>
+      <c r="P9" s="198"/>
+      <c r="Q9" s="198"/>
+      <c r="R9" s="198"/>
+      <c r="S9" s="198"/>
+      <c r="T9" s="198"/>
+      <c r="U9" s="198"/>
+      <c r="V9" s="198"/>
+      <c r="W9" s="198"/>
+      <c r="X9" s="198"/>
+      <c r="Y9" s="198"/>
+      <c r="Z9" s="199"/>
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="145" t="s">
+      <c r="B10" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="129" t="s">
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="185"/>
+      <c r="L10" s="185"/>
+      <c r="M10" s="185"/>
+      <c r="N10" s="185"/>
+      <c r="O10" s="185"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="129"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="132"/>
+      <c r="R10" s="165"/>
+      <c r="S10" s="165"/>
+      <c r="T10" s="185"/>
+      <c r="U10" s="185"/>
+      <c r="V10" s="185"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="186"/>
+      <c r="Z10" s="187"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="167" t="s">
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="R11" s="168"/>
-      <c r="S11" s="169"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="54"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="227"/>
       <c r="AA11" s="52"/>
     </row>
     <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="138"/>
-      <c r="S12" s="138"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="139"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="139"/>
-      <c r="Z12" s="140"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="191"/>
+      <c r="J12" s="191"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="191"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="191"/>
+      <c r="Q12" s="191"/>
+      <c r="R12" s="191"/>
+      <c r="S12" s="191"/>
+      <c r="T12" s="191"/>
+      <c r="U12" s="191"/>
+      <c r="V12" s="191"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="192"/>
+      <c r="Z12" s="193"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="138"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="138"/>
-      <c r="V13" s="138"/>
-      <c r="W13" s="138"/>
-      <c r="X13" s="138"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="141"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="191"/>
+      <c r="O13" s="191"/>
+      <c r="P13" s="191"/>
+      <c r="Q13" s="191"/>
+      <c r="R13" s="191"/>
+      <c r="S13" s="191"/>
+      <c r="T13" s="191"/>
+      <c r="U13" s="191"/>
+      <c r="V13" s="191"/>
+      <c r="W13" s="191"/>
+      <c r="X13" s="191"/>
+      <c r="Y13" s="191"/>
+      <c r="Z13" s="194"/>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="2:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
       <c r="I14" s="29"/>
-      <c r="J14" s="124" t="s">
+      <c r="J14" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="126"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="121"/>
       <c r="R14" s="34"/>
-      <c r="S14" s="124" t="s">
+      <c r="S14" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="125"/>
-      <c r="U14" s="125"/>
-      <c r="V14" s="125"/>
-      <c r="W14" s="125"/>
-      <c r="X14" s="125"/>
-      <c r="Y14" s="125"/>
-      <c r="Z14" s="133"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="188"/>
       <c r="AA14" s="2"/>
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="2:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="119" t="s">
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="120"/>
+      <c r="J15" s="179"/>
       <c r="K15" s="47"/>
-      <c r="L15" s="121" t="s">
+      <c r="L15" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="122"/>
+      <c r="M15" s="181"/>
       <c r="N15" s="48"/>
-      <c r="O15" s="123" t="s">
+      <c r="O15" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="146">
+      <c r="P15" s="182"/>
+      <c r="Q15" s="182"/>
+      <c r="R15" s="182"/>
+      <c r="S15" s="201">
         <v>0.75</v>
       </c>
-      <c r="T15" s="147"/>
-      <c r="U15" s="148"/>
+      <c r="T15" s="202"/>
+      <c r="U15" s="203"/>
       <c r="V15" s="47"/>
-      <c r="W15" s="146">
+      <c r="W15" s="201">
         <v>0.5</v>
       </c>
-      <c r="X15" s="147"/>
-      <c r="Y15" s="147"/>
+      <c r="X15" s="202"/>
+      <c r="Y15" s="202"/>
       <c r="Z15" s="48"/>
       <c r="AA15" s="2"/>
       <c r="AE15" s="2"/>
     </row>
     <row r="16" spans="2:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="163"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="163"/>
-      <c r="V16" s="163"/>
-      <c r="W16" s="163"/>
-      <c r="X16" s="163"/>
-      <c r="Y16" s="163"/>
-      <c r="Z16" s="164"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="168"/>
+      <c r="L16" s="168"/>
+      <c r="M16" s="168"/>
+      <c r="N16" s="168"/>
+      <c r="O16" s="168"/>
+      <c r="P16" s="168"/>
+      <c r="Q16" s="168"/>
+      <c r="R16" s="168"/>
+      <c r="S16" s="168"/>
+      <c r="T16" s="168"/>
+      <c r="U16" s="168"/>
+      <c r="V16" s="168"/>
+      <c r="W16" s="168"/>
+      <c r="X16" s="168"/>
+      <c r="Y16" s="168"/>
+      <c r="Z16" s="169"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="2:35" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="156"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="153" t="s">
+      <c r="I17" s="163"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="155"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="156"/>
-      <c r="Q17" s="158" t="s">
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="163"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="159"/>
-      <c r="U17" s="149" t="s">
+      <c r="R17" s="165"/>
+      <c r="S17" s="165"/>
+      <c r="T17" s="166"/>
+      <c r="U17" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="150"/>
+      <c r="V17" s="158"/>
       <c r="W17" s="50"/>
-      <c r="X17" s="149" t="s">
+      <c r="X17" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="Y17" s="150"/>
+      <c r="Y17" s="158"/>
       <c r="Z17" s="50"/>
       <c r="AA17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
     <row r="18" spans="2:35" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="204" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="152" t="s">
+      <c r="C18" s="205"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="225"/>
+      <c r="L18" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="135" t="s">
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="135"/>
-      <c r="S18" s="177"/>
-      <c r="T18" s="178"/>
-      <c r="U18" s="181" t="s">
+      <c r="R18" s="136"/>
+      <c r="S18" s="146"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="182"/>
-      <c r="W18" s="182"/>
-      <c r="X18" s="175"/>
-      <c r="Y18" s="176"/>
+      <c r="V18" s="153"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="142"/>
+      <c r="Y18" s="143"/>
       <c r="Z18" s="35"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="2:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="135" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="183" t="s">
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="U19" s="77"/>
+      <c r="U19" s="127"/>
       <c r="V19" s="31"/>
-      <c r="W19" s="183" t="s">
+      <c r="W19" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="77"/>
+      <c r="X19" s="126"/>
+      <c r="Y19" s="127"/>
       <c r="Z19" s="32"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="2:35" s="21" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="160" t="s">
+      <c r="B20" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="161" t="s">
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="161"/>
-      <c r="S20" s="124"/>
-      <c r="T20" s="184" t="s">
+      <c r="N20" s="144"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="144"/>
+      <c r="R20" s="144"/>
+      <c r="S20" s="145"/>
+      <c r="T20" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="U20" s="126"/>
+      <c r="U20" s="121"/>
       <c r="V20" s="46"/>
-      <c r="W20" s="184" t="s">
+      <c r="W20" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="125"/>
-      <c r="Y20" s="126"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="121"/>
       <c r="Z20" s="51"/>
       <c r="AA20" s="20"/>
     </row>
     <row r="21" spans="2:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="173"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="173"/>
-      <c r="S21" s="173"/>
-      <c r="T21" s="173"/>
-      <c r="U21" s="173"/>
-      <c r="V21" s="173"/>
-      <c r="W21" s="173"/>
-      <c r="X21" s="173"/>
-      <c r="Y21" s="173"/>
-      <c r="Z21" s="174"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="138"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="138"/>
+      <c r="V21" s="138"/>
+      <c r="W21" s="138"/>
+      <c r="X21" s="138"/>
+      <c r="Y21" s="138"/>
+      <c r="Z21" s="139"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B22" s="196" t="s">
+      <c r="B22" s="210" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="197"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="197"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="210" t="s">
+      <c r="C22" s="211"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="210"/>
-      <c r="K22" s="210"/>
-      <c r="L22" s="152" t="s">
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
-      <c r="S22" s="152"/>
-      <c r="T22" s="152"/>
-      <c r="U22" s="152"/>
-      <c r="V22" s="152"/>
-      <c r="W22" s="152"/>
-      <c r="X22" s="152"/>
-      <c r="Y22" s="152"/>
-      <c r="Z22" s="211"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="91"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="103">
+      <c r="B23" s="140">
         <v>1</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="214" t="s">
+      <c r="C23" s="141"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="214"/>
-      <c r="N23" s="212"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="170"/>
-      <c r="R23" s="170"/>
-      <c r="S23" s="66" t="s">
+      <c r="M23" s="96"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="170"/>
-      <c r="X23" s="170"/>
-      <c r="Y23" s="170"/>
-      <c r="Z23" s="171"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="97"/>
+      <c r="Z23" s="111"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="103">
+      <c r="B24" s="140">
         <v>2</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="200"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="206" t="s">
+      <c r="C24" s="141"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="207"/>
-      <c r="N24" s="207"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="170"/>
-      <c r="Q24" s="170"/>
-      <c r="R24" s="170"/>
-      <c r="S24" s="66" t="s">
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="170"/>
-      <c r="X24" s="170"/>
-      <c r="Y24" s="170"/>
-      <c r="Z24" s="171"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97"/>
+      <c r="Z24" s="111"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="103">
+      <c r="B25" s="140">
         <v>3</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="212" t="s">
+      <c r="C25" s="141"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="213"/>
-      <c r="N25" s="213"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="170"/>
-      <c r="S25" s="66" t="s">
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="T25" s="81"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="170"/>
-      <c r="X25" s="170"/>
-      <c r="Y25" s="170"/>
-      <c r="Z25" s="171"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="97"/>
+      <c r="Z25" s="111"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="103">
+      <c r="B26" s="140">
         <v>4</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="206" t="s">
+      <c r="C26" s="141"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="207"/>
-      <c r="N26" s="207"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="170"/>
-      <c r="R26" s="170"/>
-      <c r="S26" s="66" t="s">
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="170"/>
-      <c r="X26" s="170"/>
-      <c r="Y26" s="170"/>
-      <c r="Z26" s="171"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="97"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="97"/>
+      <c r="Z26" s="111"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="103">
+      <c r="B27" s="140">
         <v>5</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="215"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="216"/>
-      <c r="H27" s="217"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="212" t="s">
+      <c r="C27" s="141"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="213"/>
-      <c r="N27" s="213"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="170"/>
-      <c r="R27" s="170"/>
-      <c r="S27" s="66" t="s">
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="170"/>
-      <c r="X27" s="170"/>
-      <c r="Y27" s="170"/>
-      <c r="Z27" s="171"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="97"/>
+      <c r="Z27" s="111"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="221">
+      <c r="B28" s="73">
         <v>6</v>
       </c>
-      <c r="C28" s="222"/>
-      <c r="D28" s="215"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="216"/>
-      <c r="H28" s="217"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="206" t="s">
+      <c r="C28" s="74"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="207"/>
-      <c r="N28" s="207"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="170"/>
-      <c r="S28" s="66" t="s">
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="215"/>
-      <c r="X28" s="216"/>
-      <c r="Y28" s="216"/>
-      <c r="Z28" s="220"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="72"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="2:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="204">
+      <c r="B29" s="105">
         <v>7</v>
       </c>
-      <c r="C29" s="205"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="203"/>
-      <c r="H29" s="203"/>
-      <c r="I29" s="203"/>
-      <c r="J29" s="203"/>
-      <c r="K29" s="203"/>
-      <c r="L29" s="208" t="s">
+      <c r="C29" s="106"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="M29" s="208"/>
-      <c r="N29" s="206"/>
-      <c r="O29" s="203"/>
-      <c r="P29" s="203"/>
-      <c r="Q29" s="203"/>
-      <c r="R29" s="203"/>
-      <c r="S29" s="124" t="s">
+      <c r="M29" s="107"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="T29" s="125"/>
-      <c r="U29" s="125"/>
-      <c r="V29" s="126"/>
-      <c r="W29" s="203"/>
-      <c r="X29" s="203"/>
-      <c r="Y29" s="203"/>
-      <c r="Z29" s="209"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="112"/>
       <c r="AA29" s="2"/>
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="2:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="106"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="107"/>
+      <c r="C30" s="197"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="197"/>
+      <c r="L30" s="197"/>
+      <c r="M30" s="197"/>
+      <c r="N30" s="197"/>
+      <c r="O30" s="197"/>
+      <c r="P30" s="197"/>
+      <c r="Q30" s="197"/>
+      <c r="R30" s="197"/>
+      <c r="S30" s="197"/>
+      <c r="T30" s="197"/>
+      <c r="U30" s="197"/>
+      <c r="V30" s="197"/>
+      <c r="W30" s="197"/>
+      <c r="X30" s="197"/>
+      <c r="Y30" s="197"/>
+      <c r="Z30" s="209"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="96" t="s">
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="98"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="79"/>
       <c r="N31" s="40"/>
-      <c r="O31" s="75" t="s">
+      <c r="O31" s="216" t="s">
         <v>82</v>
       </c>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="226"/>
-      <c r="T31" s="75" t="s">
+      <c r="P31" s="126"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="216" t="s">
         <v>83</v>
       </c>
-      <c r="U31" s="76"/>
-      <c r="V31" s="76"/>
-      <c r="W31" s="76"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="75"/>
-      <c r="Z31" s="78"/>
+      <c r="U31" s="126"/>
+      <c r="V31" s="126"/>
+      <c r="W31" s="126"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="216"/>
+      <c r="Z31" s="224"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="74"/>
-      <c r="C32" s="79" t="s">
+      <c r="B32" s="208"/>
+      <c r="C32" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="191"/>
+      <c r="D32" s="217"/>
+      <c r="E32" s="217"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="117"/>
       <c r="J32" s="24">
         <v>801</v>
       </c>
@@ -3508,131 +3505,131 @@
         <v>501</v>
       </c>
       <c r="M32" s="25"/>
-      <c r="N32" s="66" t="s">
+      <c r="N32" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="O32" s="81"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="227"/>
-      <c r="R32" s="66" t="s">
+      <c r="O32" s="68"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="S32" s="67"/>
-      <c r="T32" s="227"/>
-      <c r="U32" s="66" t="s">
+      <c r="S32" s="69"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="V32" s="67"/>
-      <c r="W32" s="227"/>
-      <c r="X32" s="66" t="s">
+      <c r="V32" s="69"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="228"/>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="226"/>
       <c r="AA32" s="2"/>
       <c r="AI32" s="22"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="C33" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="191"/>
-      <c r="J33" s="88" t="s">
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="89"/>
+      <c r="K33" s="81"/>
       <c r="L33" s="27"/>
-      <c r="M33" s="108" t="s">
+      <c r="M33" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="109"/>
+      <c r="N33" s="103"/>
       <c r="O33" s="25"/>
-      <c r="P33" s="108" t="s">
+      <c r="P33" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
       <c r="S33" s="27"/>
-      <c r="T33" s="108" t="s">
+      <c r="T33" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="109"/>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109"/>
-      <c r="X33" s="110"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="104"/>
       <c r="Y33" s="27"/>
       <c r="Z33" s="36"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="191"/>
-      <c r="J34" s="88" t="s">
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="89"/>
-      <c r="L34" s="90"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="82"/>
       <c r="M34" s="28"/>
-      <c r="N34" s="88" t="s">
+      <c r="N34" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="90"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="82"/>
       <c r="R34" s="29"/>
-      <c r="S34" s="82" t="s">
+      <c r="S34" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="T34" s="83"/>
-      <c r="U34" s="83"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="84"/>
-      <c r="X34" s="185" t="s">
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="Y34" s="186"/>
-      <c r="Z34" s="187"/>
+      <c r="Y34" s="109"/>
+      <c r="Z34" s="110"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="58"/>
-      <c r="C35" s="194" t="s">
+      <c r="B35" s="56"/>
+      <c r="C35" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="194"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="91" t="s">
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="93"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="88"/>
       <c r="R35" s="41" t="s">
         <v>47</v>
       </c>
@@ -3649,54 +3646,54 @@
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="2:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="96" t="s">
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="98"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="79"/>
       <c r="N36" s="40"/>
-      <c r="O36" s="75" t="s">
+      <c r="O36" s="216" t="s">
         <v>82</v>
       </c>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="77"/>
-      <c r="S36" s="226"/>
-      <c r="T36" s="75" t="s">
+      <c r="P36" s="126"/>
+      <c r="Q36" s="126"/>
+      <c r="R36" s="127"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="216" t="s">
         <v>83</v>
       </c>
-      <c r="U36" s="76"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="76"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="75"/>
-      <c r="Z36" s="78"/>
+      <c r="U36" s="126"/>
+      <c r="V36" s="126"/>
+      <c r="W36" s="126"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="216"/>
+      <c r="Z36" s="224"/>
       <c r="AA36" s="2"/>
     </row>
     <row r="37" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="74"/>
-      <c r="C37" s="79" t="s">
+      <c r="B37" s="208"/>
+      <c r="C37" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="191"/>
+      <c r="D37" s="217"/>
+      <c r="E37" s="217"/>
+      <c r="F37" s="217"/>
+      <c r="G37" s="217"/>
+      <c r="H37" s="218"/>
+      <c r="I37" s="117"/>
       <c r="J37" s="24">
         <v>801</v>
       </c>
@@ -3705,130 +3702,130 @@
         <v>501</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="66" t="s">
+      <c r="N37" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="O37" s="81"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="227"/>
-      <c r="R37" s="66" t="s">
+      <c r="O37" s="68"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="S37" s="67"/>
-      <c r="T37" s="227"/>
-      <c r="U37" s="66" t="s">
+      <c r="S37" s="69"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="V37" s="67"/>
-      <c r="W37" s="227"/>
-      <c r="X37" s="66" t="s">
+      <c r="V37" s="69"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="Y37" s="67"/>
-      <c r="Z37" s="228"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="226"/>
       <c r="AA37" s="2"/>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="191"/>
-      <c r="J38" s="88" t="s">
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="K38" s="89"/>
+      <c r="K38" s="81"/>
       <c r="L38" s="27"/>
-      <c r="M38" s="108" t="s">
+      <c r="M38" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="N38" s="109"/>
+      <c r="N38" s="103"/>
       <c r="O38" s="25"/>
-      <c r="P38" s="108" t="s">
+      <c r="P38" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="Q38" s="109"/>
-      <c r="R38" s="109"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="103"/>
       <c r="S38" s="27"/>
-      <c r="T38" s="108" t="s">
+      <c r="T38" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="U38" s="109"/>
-      <c r="V38" s="109"/>
-      <c r="W38" s="109"/>
-      <c r="X38" s="110"/>
+      <c r="U38" s="103"/>
+      <c r="V38" s="103"/>
+      <c r="W38" s="103"/>
+      <c r="X38" s="104"/>
       <c r="Y38" s="27"/>
       <c r="Z38" s="36"/>
       <c r="AA38" s="2"/>
     </row>
     <row r="39" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="191"/>
-      <c r="J39" s="88" t="s">
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K39" s="89"/>
-      <c r="L39" s="90"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="82"/>
       <c r="M39" s="28"/>
-      <c r="N39" s="88" t="s">
+      <c r="N39" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="90"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="82"/>
       <c r="R39" s="29"/>
-      <c r="S39" s="82" t="s">
+      <c r="S39" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="T39" s="83"/>
-      <c r="U39" s="83"/>
-      <c r="V39" s="83"/>
-      <c r="W39" s="84"/>
-      <c r="X39" s="185" t="s">
+      <c r="T39" s="84"/>
+      <c r="U39" s="84"/>
+      <c r="V39" s="84"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="Y39" s="186"/>
-      <c r="Z39" s="187"/>
+      <c r="Y39" s="109"/>
+      <c r="Z39" s="110"/>
       <c r="AA39" s="2"/>
     </row>
     <row r="40" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="58"/>
-      <c r="C40" s="194" t="s">
+      <c r="B40" s="56"/>
+      <c r="C40" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="195"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="91" t="s">
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="93"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="88"/>
       <c r="R40" s="41" t="s">
         <v>47</v>
       </c>
@@ -3845,54 +3842,54 @@
       <c r="AA40" s="2"/>
     </row>
     <row r="41" spans="2:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="96" t="s">
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="98"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="79"/>
       <c r="N41" s="40"/>
-      <c r="O41" s="75" t="s">
+      <c r="O41" s="216" t="s">
         <v>82</v>
       </c>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="77"/>
-      <c r="S41" s="226"/>
-      <c r="T41" s="75" t="s">
+      <c r="P41" s="126"/>
+      <c r="Q41" s="126"/>
+      <c r="R41" s="127"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="216" t="s">
         <v>83</v>
       </c>
-      <c r="U41" s="76"/>
-      <c r="V41" s="76"/>
-      <c r="W41" s="76"/>
-      <c r="X41" s="55"/>
-      <c r="Y41" s="75"/>
-      <c r="Z41" s="78"/>
+      <c r="U41" s="126"/>
+      <c r="V41" s="126"/>
+      <c r="W41" s="126"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="216"/>
+      <c r="Z41" s="224"/>
       <c r="AA41" s="2"/>
     </row>
     <row r="42" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="74"/>
-      <c r="C42" s="79" t="s">
+      <c r="B42" s="208"/>
+      <c r="C42" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="191"/>
+      <c r="D42" s="217"/>
+      <c r="E42" s="217"/>
+      <c r="F42" s="217"/>
+      <c r="G42" s="217"/>
+      <c r="H42" s="218"/>
+      <c r="I42" s="117"/>
       <c r="J42" s="24">
         <v>801</v>
       </c>
@@ -3901,194 +3898,194 @@
         <v>501</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="66" t="s">
+      <c r="N42" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="O42" s="81"/>
-      <c r="P42" s="67"/>
-      <c r="Q42" s="227"/>
-      <c r="R42" s="66" t="s">
+      <c r="O42" s="68"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="S42" s="67"/>
-      <c r="T42" s="227"/>
-      <c r="U42" s="66" t="s">
+      <c r="S42" s="69"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="V42" s="67"/>
-      <c r="W42" s="227"/>
-      <c r="X42" s="66" t="s">
+      <c r="V42" s="69"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="Y42" s="67"/>
-      <c r="Z42" s="228"/>
+      <c r="Y42" s="69"/>
+      <c r="Z42" s="226"/>
       <c r="AA42" s="2"/>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="88" t="s">
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="K43" s="89"/>
+      <c r="K43" s="81"/>
       <c r="L43" s="27"/>
-      <c r="M43" s="108" t="s">
+      <c r="M43" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="109"/>
+      <c r="N43" s="103"/>
       <c r="O43" s="25"/>
-      <c r="P43" s="108" t="s">
+      <c r="P43" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="Q43" s="109"/>
-      <c r="R43" s="109"/>
+      <c r="Q43" s="103"/>
+      <c r="R43" s="103"/>
       <c r="S43" s="27"/>
-      <c r="T43" s="108" t="s">
+      <c r="T43" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="109"/>
-      <c r="V43" s="109"/>
-      <c r="W43" s="109"/>
-      <c r="X43" s="110"/>
+      <c r="U43" s="103"/>
+      <c r="V43" s="103"/>
+      <c r="W43" s="103"/>
+      <c r="X43" s="104"/>
       <c r="Y43" s="27"/>
       <c r="Z43" s="36"/>
       <c r="AA43" s="2"/>
     </row>
     <row r="44" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="81" t="s">
+      <c r="C44" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="191"/>
-      <c r="J44" s="88" t="s">
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="89"/>
-      <c r="L44" s="90"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="82"/>
       <c r="M44" s="28"/>
-      <c r="N44" s="88" t="s">
+      <c r="N44" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="90"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="82"/>
       <c r="R44" s="29"/>
-      <c r="S44" s="82" t="s">
+      <c r="S44" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="T44" s="83"/>
-      <c r="U44" s="83"/>
-      <c r="V44" s="83"/>
-      <c r="W44" s="84"/>
-      <c r="X44" s="185" t="s">
+      <c r="T44" s="84"/>
+      <c r="U44" s="84"/>
+      <c r="V44" s="84"/>
+      <c r="W44" s="85"/>
+      <c r="X44" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="Y44" s="186"/>
-      <c r="Z44" s="187"/>
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="110"/>
       <c r="AA44" s="2"/>
     </row>
     <row r="45" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="60"/>
-      <c r="C45" s="125" t="s">
+      <c r="B45" s="58"/>
+      <c r="C45" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="218"/>
-      <c r="K45" s="219"/>
-      <c r="L45" s="223" t="s">
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="M45" s="224"/>
-      <c r="N45" s="224"/>
-      <c r="O45" s="224"/>
-      <c r="P45" s="224"/>
-      <c r="Q45" s="225"/>
-      <c r="R45" s="63" t="s">
+      <c r="M45" s="129"/>
+      <c r="N45" s="129"/>
+      <c r="O45" s="129"/>
+      <c r="P45" s="129"/>
+      <c r="Q45" s="130"/>
+      <c r="R45" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="S45" s="64"/>
-      <c r="T45" s="63" t="s">
+      <c r="S45" s="62"/>
+      <c r="T45" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="U45" s="64"/>
-      <c r="V45" s="65"/>
-      <c r="W45" s="65"/>
-      <c r="X45" s="61"/>
-      <c r="Y45" s="61"/>
-      <c r="Z45" s="62"/>
+      <c r="U45" s="62"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="59"/>
+      <c r="Y45" s="59"/>
+      <c r="Z45" s="60"/>
       <c r="AA45" s="2"/>
     </row>
     <row r="46" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="190"/>
-      <c r="J46" s="96" t="s">
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="K46" s="97"/>
-      <c r="L46" s="97"/>
-      <c r="M46" s="98"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="79"/>
       <c r="N46" s="40"/>
-      <c r="O46" s="75" t="s">
+      <c r="O46" s="216" t="s">
         <v>82</v>
       </c>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="77"/>
-      <c r="S46" s="226"/>
-      <c r="T46" s="75" t="s">
+      <c r="P46" s="126"/>
+      <c r="Q46" s="126"/>
+      <c r="R46" s="127"/>
+      <c r="S46" s="64"/>
+      <c r="T46" s="216" t="s">
         <v>83</v>
       </c>
-      <c r="U46" s="76"/>
-      <c r="V46" s="76"/>
-      <c r="W46" s="76"/>
-      <c r="X46" s="55"/>
-      <c r="Y46" s="75"/>
-      <c r="Z46" s="78"/>
+      <c r="U46" s="126"/>
+      <c r="V46" s="126"/>
+      <c r="W46" s="126"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="216"/>
+      <c r="Z46" s="224"/>
       <c r="AA46" s="2"/>
     </row>
     <row r="47" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="74"/>
-      <c r="C47" s="79" t="s">
+      <c r="B47" s="208"/>
+      <c r="C47" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="191"/>
+      <c r="D47" s="217"/>
+      <c r="E47" s="217"/>
+      <c r="F47" s="217"/>
+      <c r="G47" s="217"/>
+      <c r="H47" s="218"/>
+      <c r="I47" s="117"/>
       <c r="J47" s="24">
         <v>801</v>
       </c>
@@ -4097,130 +4094,130 @@
         <v>501</v>
       </c>
       <c r="M47" s="25"/>
-      <c r="N47" s="66" t="s">
+      <c r="N47" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="O47" s="81"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="227"/>
-      <c r="R47" s="66" t="s">
+      <c r="O47" s="68"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="S47" s="67"/>
-      <c r="T47" s="227"/>
-      <c r="U47" s="66" t="s">
+      <c r="S47" s="69"/>
+      <c r="T47" s="65"/>
+      <c r="U47" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="V47" s="67"/>
-      <c r="W47" s="227"/>
-      <c r="X47" s="66" t="s">
+      <c r="V47" s="69"/>
+      <c r="W47" s="65"/>
+      <c r="X47" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="Y47" s="67"/>
-      <c r="Z47" s="228"/>
+      <c r="Y47" s="69"/>
+      <c r="Z47" s="226"/>
       <c r="AA47" s="2"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="191"/>
-      <c r="J48" s="88" t="s">
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="K48" s="89"/>
+      <c r="K48" s="81"/>
       <c r="L48" s="27"/>
-      <c r="M48" s="108" t="s">
+      <c r="M48" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="N48" s="109"/>
+      <c r="N48" s="103"/>
       <c r="O48" s="25"/>
-      <c r="P48" s="108" t="s">
+      <c r="P48" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="109"/>
+      <c r="Q48" s="103"/>
+      <c r="R48" s="103"/>
       <c r="S48" s="27"/>
-      <c r="T48" s="108" t="s">
+      <c r="T48" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="109"/>
-      <c r="V48" s="109"/>
-      <c r="W48" s="109"/>
-      <c r="X48" s="110"/>
+      <c r="U48" s="103"/>
+      <c r="V48" s="103"/>
+      <c r="W48" s="103"/>
+      <c r="X48" s="104"/>
       <c r="Y48" s="27"/>
       <c r="Z48" s="36"/>
       <c r="AA48" s="2"/>
     </row>
     <row r="49" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="191"/>
-      <c r="J49" s="88" t="s">
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="89"/>
-      <c r="L49" s="90"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="82"/>
       <c r="M49" s="28"/>
-      <c r="N49" s="88" t="s">
+      <c r="N49" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="89"/>
-      <c r="P49" s="89"/>
-      <c r="Q49" s="90"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="81"/>
+      <c r="Q49" s="82"/>
       <c r="R49" s="29"/>
-      <c r="S49" s="82" t="s">
+      <c r="S49" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="T49" s="83"/>
-      <c r="U49" s="83"/>
-      <c r="V49" s="83"/>
-      <c r="W49" s="84"/>
-      <c r="X49" s="185" t="s">
+      <c r="T49" s="84"/>
+      <c r="U49" s="84"/>
+      <c r="V49" s="84"/>
+      <c r="W49" s="85"/>
+      <c r="X49" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="Y49" s="186"/>
-      <c r="Z49" s="187"/>
+      <c r="Y49" s="109"/>
+      <c r="Z49" s="110"/>
       <c r="AA49" s="2"/>
     </row>
     <row r="50" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="59"/>
-      <c r="C50" s="192" t="s">
+      <c r="B50" s="57"/>
+      <c r="C50" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="192"/>
-      <c r="E50" s="192"/>
-      <c r="F50" s="192"/>
-      <c r="G50" s="192"/>
-      <c r="H50" s="192"/>
-      <c r="I50" s="193"/>
-      <c r="J50" s="188"/>
-      <c r="K50" s="189"/>
-      <c r="L50" s="85" t="s">
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="119"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="115"/>
+      <c r="L50" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="M50" s="86"/>
-      <c r="N50" s="86"/>
-      <c r="O50" s="86"/>
-      <c r="P50" s="86"/>
-      <c r="Q50" s="87"/>
+      <c r="M50" s="214"/>
+      <c r="N50" s="214"/>
+      <c r="O50" s="214"/>
+      <c r="P50" s="214"/>
+      <c r="Q50" s="215"/>
       <c r="R50" s="26" t="s">
         <v>47</v>
       </c>
@@ -4237,28 +4234,168 @@
       <c r="AA50" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="205">
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="S39:W39"/>
-    <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:Z22"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
+  <mergeCells count="206">
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:Z8"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="O46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="S49:W49"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="L35:Q35"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="S34:W34"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B30:Z30"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="S44:W44"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B1:G8"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="H1:Z1"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="S14:Z14"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="H3:Z7"/>
+    <mergeCell ref="I12:Z12"/>
+    <mergeCell ref="I13:Z13"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="B9:Z9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:Z16"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="B21:Z21"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="T48:X48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="L45:Q45"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="D25:H25"/>
@@ -4283,166 +4420,27 @@
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="D28:H28"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="C50:I50"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="T48:X48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="L45:Q45"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="B21:Z21"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:Z16"/>
-    <mergeCell ref="B1:G8"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="H1:Z1"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:Z10"/>
-    <mergeCell ref="S14:Z14"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="H3:Z7"/>
-    <mergeCell ref="I12:Z12"/>
-    <mergeCell ref="I13:Z13"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="B9:Z9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B30:Z30"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="S44:W44"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="S49:W49"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="L35:Q35"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="S34:W34"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:Z8"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="O46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:Z22"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="S39:W39"/>
+    <mergeCell ref="L40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="1.0629921259842521" bottom="0.15748031496062992" header="0.15748031496062992" footer="0.15748031496062992"/>
